--- a/日志/学生实践课工作日志_20242160A1311_刘灿(7).xlsx
+++ b/日志/学生实践课工作日志_20242160A1311_刘灿(7).xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\other\FICQ\日志\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE206E-E1BC-4E76-8888-FEAF46E4ECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="12315" yWindow="735" windowWidth="16365" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>《J2EE高级开发框架》项目实践课工作日志</t>
   </si>
@@ -75,19 +68,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成entity层的编写</t>
+    <t>对文件传输模块进行安全测试，修复了一些安全漏洞，如文件上传路径的遍历攻击和文件下载的权限控制问题。
+完成群组交流模块的部分功能，实现了群组的创建和加入逻辑。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>进行entity层的编写</t>
+    <t>安全测试过程中，发现部分文件操作的权限控制不够严格。
+群组创建和加入功能的实现过程中，遇到数据库事务处理和并发控制的问题。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善群组交流模块，实现群组消息的发送和接收功能。
+开始开发社交网络模块，实现好友添加和好友列表展示功能。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,6 +216,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,41 +258,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +467,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -468,7 +476,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -484,6 +492,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -738,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,14 +766,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -781,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="4">
-        <v>45770</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -794,104 +805,106 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:7" ht="240" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"一二节课,三四节课,五六节课,七八节课"</formula1>
     </dataValidation>
   </dataValidations>
